--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-44/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-44/curvature_data.xlsx
@@ -393,86 +393,86 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53079.675</v>
+        <v>53069.006999</v>
       </c>
       <c r="B3">
-        <v>-0.00046118583432</v>
+        <v>-0.00019912590276</v>
       </c>
       <c r="C3">
-        <v>-0.00037270166708</v>
+        <v>-0.00016021573904</v>
       </c>
       <c r="D3">
-        <v>-9.9214498818e-05</v>
+        <v>-4.4581991752e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53090.875</v>
+        <v>53079.675</v>
       </c>
       <c r="B4">
-        <v>-0.0007227576</v>
+        <v>-0.00046118583432</v>
       </c>
       <c r="C4">
-        <v>-0.000591108</v>
+        <v>-0.00037270166708</v>
       </c>
       <c r="D4">
-        <v>-0.0001486276</v>
+        <v>-9.9214498818e-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53123.407002</v>
+        <v>53090.875</v>
       </c>
       <c r="B5">
-        <v>-2.996742638e-05</v>
+        <v>-0.0007227576</v>
       </c>
       <c r="C5">
-        <v>-2.4170022604e-05</v>
+        <v>-0.000591108</v>
       </c>
       <c r="D5">
-        <v>-6.9937869115e-06</v>
+        <v>-0.0001486276</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>53112.675001</v>
+        <v>53101.539001</v>
       </c>
       <c r="B6">
-        <v>-0.00018269102268</v>
+        <v>-0.0004477147</v>
       </c>
       <c r="C6">
-        <v>-0.00014757528914</v>
+        <v>-0.0003645386</v>
       </c>
       <c r="D6">
-        <v>-4.3307808899e-05</v>
+        <v>-0.0001072299</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53069.006999</v>
+        <v>53112.675001</v>
       </c>
       <c r="B7">
-        <v>-0.00019912590276</v>
+        <v>-0.00018269102268</v>
       </c>
       <c r="C7">
-        <v>-0.00016021573904</v>
+        <v>-0.00014757528914</v>
       </c>
       <c r="D7">
-        <v>-4.4581991752e-05</v>
+        <v>-4.3307808899e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53101.539001</v>
+        <v>53123.407002</v>
       </c>
       <c r="B8">
-        <v>-0.0004477147</v>
+        <v>-2.996742638e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0003645386</v>
+        <v>-2.4170022604e-05</v>
       </c>
       <c r="D8">
-        <v>-0.0001072299</v>
+        <v>-6.9937869115e-06</v>
       </c>
     </row>
   </sheetData>
